--- a/test_files/program/redirections.xlsx
+++ b/test_files/program/redirections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\unit_tester\test_files\program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\minishell-tester\test_files\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDAD0B9-92F7-45EC-A8C8-5D037CF24114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E54CC5C-1DA7-41CF-B603-3D0B4E2DE303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>$&gt; (ls &amp;&amp; pwd | wc) &gt; hola
 $&gt; cat hola</t>
@@ -623,64 +623,6 @@
     <t>$&gt; &lt; a &gt; b cat &gt; hey &gt;&gt; d
 $&gt; cat d
 $&gt; ls</t>
-  </si>
-  <si>
-    <t>$&gt; cat &lt;&lt; hola</t>
-  </si>
-  <si>
-    <t>$&gt; cat &lt;&lt; 'hola'</t>
-  </si>
-  <si>
-    <t>$&gt; cat &lt;&lt; "hola"</t>
-  </si>
-  <si>
-    <t>$&gt; cat &lt;&lt; ho"la"</t>
-  </si>
-  <si>
-    <t>$&gt; cat &lt;&lt; $HOME</t>
-  </si>
-  <si>
-    <t>$&gt; cat &lt;&lt; hola &gt; bonjour
-$&gt; cat bonjour</t>
-  </si>
-  <si>
-    <t>$&gt; cat &lt;&lt; hola | rev</t>
-  </si>
-  <si>
-    <t>$&gt; &lt;&lt; hola</t>
-  </si>
-  <si>
-    <t>$&gt; &lt;&lt;hola</t>
-  </si>
-  <si>
-    <t>$&gt; cat &lt;&lt;</t>
-  </si>
-  <si>
-    <t>$&gt; cat &lt;&lt; prout &lt;&lt; lol &lt;&lt; koala</t>
-  </si>
-  <si>
-    <t>$&gt; prout &lt;&lt; lol &lt;&lt; cat &lt;&lt; koala</t>
-  </si>
-  <si>
-    <t>$&gt; &lt;&lt; $hola</t>
-  </si>
-  <si>
-    <t>$&gt; &lt;&lt; $"hola"$"b"</t>
-  </si>
-  <si>
-    <t>$&gt; &lt;&lt; $"$hola"$$"b"</t>
-  </si>
-  <si>
-    <t>$&gt; &lt;&lt; ho$la$"$a"$$"b"</t>
-  </si>
-  <si>
-    <t>$&gt; echo hola &lt;&lt;&lt; bonjour</t>
-  </si>
-  <si>
-    <t>$&gt; echo hola &lt;&lt;&lt;&lt; bonjour</t>
-  </si>
-  <si>
-    <t>$&gt; echo hola &lt;&lt;&lt;&lt;&lt; bonjour</t>
   </si>
 </sst>
 </file>
@@ -1054,9 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A141"/>
+  <dimension ref="A1:A122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:XFD142"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1673,101 +1617,6 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>136</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
